--- a/Code/Results/Cases/Case_0_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9762622211696422</v>
+        <v>1.035343593985242</v>
       </c>
       <c r="D2">
-        <v>0.9881163212412193</v>
+        <v>1.044958576889714</v>
       </c>
       <c r="E2">
-        <v>0.9897365567262414</v>
+        <v>1.043646377795473</v>
       </c>
       <c r="F2">
-        <v>0.9859476569786894</v>
+        <v>1.052708748422648</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035722913647298</v>
+        <v>1.026260528590535</v>
       </c>
       <c r="J2">
-        <v>0.9991768716652631</v>
+        <v>1.040457885307983</v>
       </c>
       <c r="K2">
-        <v>0.9997437354589735</v>
+        <v>1.047728163742146</v>
       </c>
       <c r="L2">
-        <v>1.001340754029733</v>
+        <v>1.046419656740346</v>
       </c>
       <c r="M2">
-        <v>0.9976062980501407</v>
+        <v>1.055456732356759</v>
       </c>
       <c r="N2">
-        <v>1.00381401785919</v>
+        <v>1.017438604218481</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9842012044686342</v>
+        <v>1.036656968303472</v>
       </c>
       <c r="D3">
-        <v>0.9960703690366197</v>
+        <v>1.046249757366403</v>
       </c>
       <c r="E3">
-        <v>0.9972684841479025</v>
+        <v>1.044870185010141</v>
       </c>
       <c r="F3">
-        <v>0.9958303706149415</v>
+        <v>1.054167554089118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039093690842731</v>
+        <v>1.026437532419498</v>
       </c>
       <c r="J3">
-        <v>1.005132026642621</v>
+        <v>1.041412932363572</v>
       </c>
       <c r="K3">
-        <v>1.0067537783845</v>
+        <v>1.048829437406635</v>
       </c>
       <c r="L3">
-        <v>1.007936434951942</v>
+        <v>1.047453462874419</v>
       </c>
       <c r="M3">
-        <v>1.006516882110363</v>
+        <v>1.0567267815579</v>
       </c>
       <c r="N3">
-        <v>1.005777587938716</v>
+        <v>1.017753466389779</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.989071594793331</v>
+        <v>1.037500774956719</v>
       </c>
       <c r="D4">
-        <v>1.000928753157002</v>
+        <v>1.047077657355115</v>
       </c>
       <c r="E4">
-        <v>1.001870041384927</v>
+        <v>1.045654924263664</v>
       </c>
       <c r="F4">
-        <v>1.001819719551275</v>
+        <v>1.055098944051483</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041066354132788</v>
+        <v>1.026542394296678</v>
       </c>
       <c r="J4">
-        <v>1.00875904258632</v>
+        <v>1.042024454768805</v>
       </c>
       <c r="K4">
-        <v>1.011015981856328</v>
+        <v>1.04953392684855</v>
       </c>
       <c r="L4">
-        <v>1.01194594893173</v>
+        <v>1.048114715372643</v>
       </c>
       <c r="M4">
-        <v>1.011896231665764</v>
+        <v>1.057535549989291</v>
       </c>
       <c r="N4">
-        <v>1.006973647302571</v>
+        <v>1.017955063093808</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9910617426526179</v>
+        <v>1.037854081949189</v>
       </c>
       <c r="D5">
-        <v>1.002909324896764</v>
+        <v>1.04742390836385</v>
       </c>
       <c r="E5">
-        <v>1.003746143052427</v>
+        <v>1.045983133442264</v>
       </c>
       <c r="F5">
-        <v>1.004250784851795</v>
+        <v>1.055487517790941</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041850505048975</v>
+        <v>1.026584167974395</v>
       </c>
       <c r="J5">
-        <v>1.010235215932919</v>
+        <v>1.042280005883959</v>
       </c>
       <c r="K5">
-        <v>1.012749041079767</v>
+        <v>1.049828168557979</v>
       </c>
       <c r="L5">
-        <v>1.0135760937453</v>
+        <v>1.048390879693913</v>
       </c>
       <c r="M5">
-        <v>1.014074856209088</v>
+        <v>1.05787245617933</v>
       </c>
       <c r="N5">
-        <v>1.007460461415282</v>
+        <v>1.018039306237648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9913926987505444</v>
+        <v>1.037913320361235</v>
       </c>
       <c r="D6">
-        <v>1.003238424282592</v>
+        <v>1.047481940449837</v>
       </c>
       <c r="E6">
-        <v>1.004057896354039</v>
+        <v>1.046038142233479</v>
       </c>
       <c r="F6">
-        <v>1.00465413707337</v>
+        <v>1.055552586772024</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041979639213694</v>
+        <v>1.026591046616384</v>
       </c>
       <c r="J6">
-        <v>1.010480362264682</v>
+        <v>1.042322824510152</v>
       </c>
       <c r="K6">
-        <v>1.013036755038639</v>
+        <v>1.049877460545901</v>
       </c>
       <c r="L6">
-        <v>1.013846712761928</v>
+        <v>1.048437142213823</v>
       </c>
       <c r="M6">
-        <v>1.014436042979585</v>
+        <v>1.057928843014198</v>
       </c>
       <c r="N6">
-        <v>1.007541307333</v>
+        <v>1.018053421355035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9890984050101351</v>
+        <v>1.037505501457944</v>
       </c>
       <c r="D7">
-        <v>1.000955452435751</v>
+        <v>1.047082291021597</v>
       </c>
       <c r="E7">
-        <v>1.001895331454612</v>
+        <v>1.045659316451188</v>
       </c>
       <c r="F7">
-        <v>1.001852532881796</v>
+        <v>1.055104147881976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041077003888137</v>
+        <v>1.026542961549701</v>
       </c>
       <c r="J7">
-        <v>1.008778951799605</v>
+        <v>1.042027875461504</v>
       </c>
       <c r="K7">
-        <v>1.011039362057164</v>
+        <v>1.04953786606669</v>
       </c>
       <c r="L7">
-        <v>1.011967941399342</v>
+        <v>1.048118412650367</v>
       </c>
       <c r="M7">
-        <v>1.011925656799819</v>
+        <v>1.057540063899285</v>
       </c>
       <c r="N7">
-        <v>1.006980212894285</v>
+        <v>1.017956190745712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9790047833148343</v>
+        <v>1.035788713927501</v>
       </c>
       <c r="D8">
-        <v>0.9908689454707931</v>
+        <v>1.045396517182373</v>
       </c>
       <c r="E8">
-        <v>0.9923428740815059</v>
+        <v>1.044061458427446</v>
       </c>
       <c r="F8">
-        <v>0.9893783692191194</v>
+        <v>1.053204372569413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036908450112255</v>
+        <v>1.026322353747458</v>
       </c>
       <c r="J8">
-        <v>1.001240050786996</v>
+        <v>1.040781992898821</v>
       </c>
       <c r="K8">
-        <v>1.002174039975368</v>
+        <v>1.048102032847066</v>
       </c>
       <c r="L8">
-        <v>1.003627574818792</v>
+        <v>1.046770637548922</v>
       </c>
       <c r="M8">
-        <v>1.00070416580354</v>
+        <v>1.055888664442549</v>
       </c>
       <c r="N8">
-        <v>1.004494266959751</v>
+        <v>1.017545459145822</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9587916023132712</v>
+        <v>1.032716567673166</v>
       </c>
       <c r="D9">
-        <v>0.9704583396904445</v>
+        <v>1.042367116990732</v>
       </c>
       <c r="E9">
-        <v>0.9730224357520226</v>
+        <v>1.041190351809656</v>
       </c>
       <c r="F9">
-        <v>0.9636784840652788</v>
+        <v>1.04975945398698</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027677521095413</v>
+        <v>1.025859266304263</v>
       </c>
       <c r="J9">
-        <v>0.9858884320877417</v>
+        <v>1.038536514901501</v>
       </c>
       <c r="K9">
-        <v>0.9840496117041987</v>
+        <v>1.045509063356386</v>
       </c>
       <c r="L9">
-        <v>0.9865689143953769</v>
+        <v>1.044336090438673</v>
       </c>
       <c r="M9">
-        <v>0.9773896875588467</v>
+        <v>1.052877790425674</v>
       </c>
       <c r="N9">
-        <v>0.9994337707133437</v>
+        <v>1.016805101568613</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9428978027178215</v>
+        <v>1.03063581767105</v>
       </c>
       <c r="D10">
-        <v>0.9541954529397741</v>
+        <v>1.040306755104612</v>
       </c>
       <c r="E10">
-        <v>0.9576361822574374</v>
+        <v>1.039237860079458</v>
       </c>
       <c r="F10">
-        <v>0.9427702979746979</v>
+        <v>1.047395759937005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019648148950898</v>
+        <v>1.02550009595894</v>
       </c>
       <c r="J10">
-        <v>0.973575630486329</v>
+        <v>1.037004930215756</v>
       </c>
       <c r="K10">
-        <v>0.9694440841114742</v>
+        <v>1.043737036393813</v>
       </c>
       <c r="L10">
-        <v>0.9728149074517934</v>
+        <v>1.042671929910005</v>
       </c>
       <c r="M10">
-        <v>0.9582559005286775</v>
+        <v>1.050801130870269</v>
       </c>
       <c r="N10">
-        <v>0.9953771546307357</v>
+        <v>1.016300064518186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9351314262995718</v>
+        <v>1.029726824456937</v>
       </c>
       <c r="D11">
-        <v>0.9461712828063544</v>
+        <v>1.039404639161595</v>
       </c>
       <c r="E11">
-        <v>0.9500468120659604</v>
+        <v>1.038383025616001</v>
       </c>
       <c r="F11">
-        <v>0.9323090342144673</v>
+        <v>1.046355934814718</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015478602587057</v>
+        <v>1.025332484181779</v>
       </c>
       <c r="J11">
-        <v>0.9674760365856165</v>
+        <v>1.036333304937137</v>
       </c>
       <c r="K11">
-        <v>0.9621851072870642</v>
+        <v>1.042959166872508</v>
       </c>
       <c r="L11">
-        <v>0.9659765357430636</v>
+        <v>1.041941317322026</v>
       </c>
       <c r="M11">
-        <v>0.9486313153953627</v>
+        <v>1.049885067031217</v>
       </c>
       <c r="N11">
-        <v>0.9933684296752809</v>
+        <v>1.016078584211453</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9320670714119645</v>
+        <v>1.029387956053361</v>
       </c>
       <c r="D12">
-        <v>0.9429897716237972</v>
+        <v>1.039068029524192</v>
       </c>
       <c r="E12">
-        <v>0.9470380659862323</v>
+        <v>1.038064066074196</v>
       </c>
       <c r="F12">
-        <v>0.9281336029525752</v>
+        <v>1.045967206530262</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013787558295898</v>
+        <v>1.025268397581603</v>
       </c>
       <c r="J12">
-        <v>0.9650532387398871</v>
+        <v>1.036082544861732</v>
       </c>
       <c r="K12">
-        <v>0.9592972468230034</v>
+        <v>1.04266861840073</v>
       </c>
       <c r="L12">
-        <v>0.9632554913332365</v>
+        <v>1.041668406238501</v>
       </c>
       <c r="M12">
-        <v>0.944780550751121</v>
+        <v>1.049542232205205</v>
       </c>
       <c r="N12">
-        <v>0.9925707275014515</v>
+        <v>1.015995889706036</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.932733591592106</v>
+        <v>1.029460700432865</v>
       </c>
       <c r="D13">
-        <v>0.943682549909401</v>
+        <v>1.039140302819453</v>
       </c>
       <c r="E13">
-        <v>0.9476932073892776</v>
+        <v>1.038132549371817</v>
       </c>
       <c r="F13">
-        <v>0.9290441718205589</v>
+        <v>1.046050703412368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014157625532146</v>
+        <v>1.025282227304522</v>
       </c>
       <c r="J13">
-        <v>0.9655810165253018</v>
+        <v>1.036136392402502</v>
       </c>
       <c r="K13">
-        <v>0.9599265583105161</v>
+        <v>1.042731015447395</v>
       </c>
       <c r="L13">
-        <v>0.9638484766545176</v>
+        <v>1.041727016178076</v>
       </c>
       <c r="M13">
-        <v>0.9456207667543656</v>
+        <v>1.049615888234321</v>
       </c>
       <c r="N13">
-        <v>0.992744488608973</v>
+        <v>1.016013647387536</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9348821646925046</v>
+        <v>1.029698838678197</v>
       </c>
       <c r="D14">
-        <v>0.945912828850636</v>
+        <v>1.039376846142725</v>
       </c>
       <c r="E14">
-        <v>0.9498023853384557</v>
+        <v>1.038356689762217</v>
       </c>
       <c r="F14">
-        <v>0.9319704325707733</v>
+        <v>1.046323853452373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015342033598762</v>
+        <v>1.025327224129427</v>
       </c>
       <c r="J14">
-        <v>0.9672793098326944</v>
+        <v>1.036312603440524</v>
       </c>
       <c r="K14">
-        <v>0.9619507164615186</v>
+        <v>1.042935183101673</v>
       </c>
       <c r="L14">
-        <v>0.9657556955947489</v>
+        <v>1.041918789739954</v>
       </c>
       <c r="M14">
-        <v>0.948319238807558</v>
+        <v>1.049856780794706</v>
       </c>
       <c r="N14">
-        <v>0.9933036538710264</v>
+        <v>1.016071757406246</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9361802924308433</v>
+        <v>1.029845400079313</v>
       </c>
       <c r="D15">
-        <v>0.9472581861401957</v>
+        <v>1.039522385585611</v>
       </c>
       <c r="E15">
-        <v>0.9510747401714333</v>
+        <v>1.038494599011156</v>
       </c>
       <c r="F15">
-        <v>0.9337318496341753</v>
+        <v>1.046491818976285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016051376061874</v>
+        <v>1.02535470553927</v>
       </c>
       <c r="J15">
-        <v>0.9683031734623766</v>
+        <v>1.036421001495326</v>
       </c>
       <c r="K15">
-        <v>0.9631704145815635</v>
+        <v>1.043060763008693</v>
       </c>
       <c r="L15">
-        <v>0.9669048587994341</v>
+        <v>1.042036744419912</v>
       </c>
       <c r="M15">
-        <v>0.9499422919829706</v>
+        <v>1.050004861282476</v>
       </c>
       <c r="N15">
-        <v>0.9936407866260168</v>
+        <v>1.016107504134339</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9433911977000766</v>
+        <v>1.030695973696437</v>
       </c>
       <c r="D16">
-        <v>0.9547034142110197</v>
+        <v>1.040366413383013</v>
       </c>
       <c r="E16">
-        <v>0.9581166664522783</v>
+        <v>1.03929439264582</v>
       </c>
       <c r="F16">
-        <v>0.9434292445159027</v>
+        <v>1.047464422493807</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019907507184212</v>
+        <v>1.025510964111279</v>
       </c>
       <c r="J16">
-        <v>0.9739612247587942</v>
+        <v>1.037049324233116</v>
       </c>
       <c r="K16">
-        <v>0.9699024322068461</v>
+        <v>1.043788436223339</v>
       </c>
       <c r="L16">
-        <v>0.9732466374963995</v>
+        <v>1.042720205161082</v>
       </c>
       <c r="M16">
-        <v>0.9588610250462156</v>
+        <v>1.050861568884182</v>
       </c>
       <c r="N16">
-        <v>0.9955041594357393</v>
+        <v>1.016314703957202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9476521220041436</v>
+        <v>1.031227353890222</v>
       </c>
       <c r="D17">
-        <v>0.9590815406822338</v>
+        <v>1.040893163436641</v>
       </c>
       <c r="E17">
-        <v>0.9622582140196165</v>
+        <v>1.039793550264466</v>
       </c>
       <c r="F17">
-        <v>0.949092771687747</v>
+        <v>1.048070113119884</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022120215442448</v>
+        <v>1.025605736410267</v>
       </c>
       <c r="J17">
-        <v>0.9772820044389794</v>
+        <v>1.037441180867676</v>
       </c>
       <c r="K17">
-        <v>0.9738471853454632</v>
+        <v>1.044242039211078</v>
       </c>
       <c r="L17">
-        <v>0.9769620178783065</v>
+        <v>1.043146223077529</v>
       </c>
       <c r="M17">
-        <v>0.9640564197366346</v>
+        <v>1.05139442157327</v>
       </c>
       <c r="N17">
-        <v>0.9965980346684555</v>
+        <v>1.016443921691499</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9500561760946385</v>
+        <v>1.031536527328094</v>
       </c>
       <c r="D18">
-        <v>0.9615450914894834</v>
+        <v>1.041199448148912</v>
       </c>
       <c r="E18">
-        <v>0.9645888424410174</v>
+        <v>1.040083795951815</v>
       </c>
       <c r="F18">
-        <v>0.9522671618302136</v>
+        <v>1.048421829256416</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023347337492648</v>
+        <v>1.025659849976952</v>
       </c>
       <c r="J18">
-        <v>0.979148474987142</v>
+        <v>1.037668931429029</v>
       </c>
       <c r="K18">
-        <v>0.9760623494239948</v>
+        <v>1.044505600060295</v>
       </c>
       <c r="L18">
-        <v>0.9790481576145202</v>
+        <v>1.043393746993889</v>
       </c>
       <c r="M18">
-        <v>0.9669640398314159</v>
+        <v>1.051703601624537</v>
       </c>
       <c r="N18">
-        <v>0.997212929392998</v>
+        <v>1.01651902292214</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9508631418427821</v>
+        <v>1.031641817297214</v>
       </c>
       <c r="D19">
-        <v>0.9623709824257551</v>
+        <v>1.041303721318654</v>
       </c>
       <c r="E19">
-        <v>0.9653702049357871</v>
+        <v>1.040182609541116</v>
       </c>
       <c r="F19">
-        <v>0.95332936760677</v>
+        <v>1.048541489672364</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023755812397376</v>
+        <v>1.025678103958108</v>
       </c>
       <c r="J19">
-        <v>0.9797738537801424</v>
+        <v>1.037746451231121</v>
       </c>
       <c r="K19">
-        <v>0.976804240189675</v>
+        <v>1.044595295548349</v>
       </c>
       <c r="L19">
-        <v>0.9797468013093591</v>
+        <v>1.043477983245507</v>
       </c>
       <c r="M19">
-        <v>0.9679362687239679</v>
+        <v>1.051808749629381</v>
       </c>
       <c r="N19">
-        <v>0.99741896721856</v>
+        <v>1.016544585025336</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9472036281406742</v>
+        <v>1.031170421806903</v>
       </c>
       <c r="D20">
-        <v>0.9586214247027012</v>
+        <v>1.040836747592241</v>
       </c>
       <c r="E20">
-        <v>0.9618229400156543</v>
+        <v>1.039740089109044</v>
       </c>
       <c r="F20">
-        <v>0.9484989035237306</v>
+        <v>1.04800529121179</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021889589723634</v>
+        <v>1.025595688877107</v>
       </c>
       <c r="J20">
-        <v>0.9769332350868506</v>
+        <v>1.037399222575712</v>
       </c>
       <c r="K20">
-        <v>0.9734330990265823</v>
+        <v>1.044193477387365</v>
       </c>
       <c r="L20">
-        <v>0.976572032944186</v>
+        <v>1.043100615381648</v>
       </c>
       <c r="M20">
-        <v>0.9635121076588609</v>
+        <v>1.051337419741181</v>
       </c>
       <c r="N20">
-        <v>0.9964831409947712</v>
+        <v>1.016430085753343</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9342549429891157</v>
+        <v>1.029628746991234</v>
       </c>
       <c r="D21">
-        <v>0.9452622144225469</v>
+        <v>1.039307232307357</v>
       </c>
       <c r="E21">
-        <v>0.9491870880845623</v>
+        <v>1.038290725848992</v>
       </c>
       <c r="F21">
-        <v>0.9311175963789889</v>
+        <v>1.046243486647163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014997614748826</v>
+        <v>1.025314024252197</v>
       </c>
       <c r="J21">
-        <v>0.9667840110613343</v>
+        <v>1.036260749423229</v>
       </c>
       <c r="K21">
-        <v>0.9613605144521794</v>
+        <v>1.042875105553346</v>
       </c>
       <c r="L21">
-        <v>0.9651996058386928</v>
+        <v>1.041862359610733</v>
       </c>
       <c r="M21">
-        <v>0.9475330574539514</v>
+        <v>1.049785915121437</v>
       </c>
       <c r="N21">
-        <v>0.9931405708736067</v>
+        <v>1.016054657293814</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9250237555668512</v>
+        <v>1.028652318305435</v>
       </c>
       <c r="D22">
-        <v>0.935641375140427</v>
+        <v>1.038336736157941</v>
       </c>
       <c r="E22">
-        <v>0.9400894409504119</v>
+        <v>1.037371132395184</v>
       </c>
       <c r="F22">
-        <v>0.9184272695535879</v>
+        <v>1.0451213383452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009798520869494</v>
+        <v>1.025126346900654</v>
       </c>
       <c r="J22">
-        <v>0.95944781310191</v>
+        <v>1.035537480034655</v>
       </c>
       <c r="K22">
-        <v>0.9526055043763532</v>
+        <v>1.0420368466036</v>
       </c>
       <c r="L22">
-        <v>0.9569491017927018</v>
+        <v>1.041074959903986</v>
       </c>
       <c r="M22">
-        <v>0.935808555102479</v>
+        <v>1.048795546362824</v>
       </c>
       <c r="N22">
-        <v>0.9907255598465869</v>
+        <v>1.015816137228439</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9300456358577542</v>
+        <v>1.029170624411293</v>
       </c>
       <c r="D23">
-        <v>0.9408860022996424</v>
+        <v>1.038852060597388</v>
       </c>
       <c r="E23">
-        <v>0.9450486456910858</v>
+        <v>1.03785942366503</v>
       </c>
       <c r="F23">
-        <v>0.9253637627453404</v>
+        <v>1.045717591427861</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0126574644952</v>
+        <v>1.025226845679104</v>
       </c>
       <c r="J23">
-        <v>0.9634498111707301</v>
+        <v>1.03592161371075</v>
       </c>
       <c r="K23">
-        <v>0.9573845729218668</v>
+        <v>1.04248211816196</v>
       </c>
       <c r="L23">
-        <v>0.9614531343942058</v>
+        <v>1.041493223351978</v>
       </c>
       <c r="M23">
-        <v>0.9422231738160145</v>
+        <v>1.04932198202144</v>
       </c>
       <c r="N23">
-        <v>0.9920428593278497</v>
+        <v>1.015942818030252</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9474065312588424</v>
+        <v>1.03119614934828</v>
       </c>
       <c r="D24">
-        <v>0.9588296063146694</v>
+        <v>1.040862242448368</v>
       </c>
       <c r="E24">
-        <v>0.9620198811371167</v>
+        <v>1.039764248697977</v>
       </c>
       <c r="F24">
-        <v>0.9487676406112402</v>
+        <v>1.048034586300721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021993993310471</v>
+        <v>1.025600232525836</v>
       </c>
       <c r="J24">
-        <v>0.9770910439936238</v>
+        <v>1.037418184232495</v>
       </c>
       <c r="K24">
-        <v>0.973620468395244</v>
+        <v>1.044215423530136</v>
       </c>
       <c r="L24">
-        <v>0.9767484973945986</v>
+        <v>1.04312122651758</v>
       </c>
       <c r="M24">
-        <v>0.9637584333077182</v>
+        <v>1.05136318143188</v>
       </c>
       <c r="N24">
-        <v>0.9965351271155081</v>
+        <v>1.016436338450077</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9643693765923541</v>
+        <v>1.033516462787259</v>
       </c>
       <c r="D25">
-        <v>0.9761195791092191</v>
+        <v>1.043157382013318</v>
       </c>
       <c r="E25">
-        <v>0.9783801071283276</v>
+        <v>1.041939287047277</v>
       </c>
       <c r="F25">
-        <v>0.970866943355172</v>
+        <v>1.050661741442136</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030336469275881</v>
+        <v>1.025987839603171</v>
       </c>
       <c r="J25">
-        <v>0.9901583708482307</v>
+        <v>1.03912305114503</v>
       </c>
       <c r="K25">
-        <v>0.9891002764999974</v>
+        <v>1.046186967246703</v>
       </c>
       <c r="L25">
-        <v>0.991323579667662</v>
+        <v>1.044972646474046</v>
       </c>
       <c r="M25">
-        <v>0.983935000325821</v>
+        <v>1.05366828547454</v>
       </c>
       <c r="N25">
-        <v>1.000841042048371</v>
+        <v>1.016998498887812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035343593985242</v>
+        <v>0.9762622211696425</v>
       </c>
       <c r="D2">
-        <v>1.044958576889714</v>
+        <v>0.9881163212412197</v>
       </c>
       <c r="E2">
-        <v>1.043646377795473</v>
+        <v>0.9897365567262416</v>
       </c>
       <c r="F2">
-        <v>1.052708748422648</v>
+        <v>0.9859476569786898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026260528590535</v>
+        <v>1.035722913647299</v>
       </c>
       <c r="J2">
-        <v>1.040457885307983</v>
+        <v>0.9991768716652634</v>
       </c>
       <c r="K2">
-        <v>1.047728163742146</v>
+        <v>0.9997437354589738</v>
       </c>
       <c r="L2">
-        <v>1.046419656740346</v>
+        <v>1.001340754029733</v>
       </c>
       <c r="M2">
-        <v>1.055456732356759</v>
+        <v>0.9976062980501409</v>
       </c>
       <c r="N2">
-        <v>1.017438604218481</v>
+        <v>1.00381401785919</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036656968303472</v>
+        <v>0.9842012044686338</v>
       </c>
       <c r="D3">
-        <v>1.046249757366403</v>
+        <v>0.9960703690366194</v>
       </c>
       <c r="E3">
-        <v>1.044870185010141</v>
+        <v>0.9972684841479019</v>
       </c>
       <c r="F3">
-        <v>1.054167554089118</v>
+        <v>0.995830370614941</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026437532419498</v>
+        <v>1.039093690842731</v>
       </c>
       <c r="J3">
-        <v>1.041412932363572</v>
+        <v>1.00513202664262</v>
       </c>
       <c r="K3">
-        <v>1.048829437406635</v>
+        <v>1.0067537783845</v>
       </c>
       <c r="L3">
-        <v>1.047453462874419</v>
+        <v>1.007936434951941</v>
       </c>
       <c r="M3">
-        <v>1.0567267815579</v>
+        <v>1.006516882110363</v>
       </c>
       <c r="N3">
-        <v>1.017753466389779</v>
+        <v>1.005777587938716</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037500774956719</v>
+        <v>0.9890715947933311</v>
       </c>
       <c r="D4">
-        <v>1.047077657355115</v>
+        <v>1.000928753157002</v>
       </c>
       <c r="E4">
-        <v>1.045654924263664</v>
+        <v>1.001870041384927</v>
       </c>
       <c r="F4">
-        <v>1.055098944051483</v>
+        <v>1.001819719551275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026542394296678</v>
+        <v>1.041066354132788</v>
       </c>
       <c r="J4">
-        <v>1.042024454768805</v>
+        <v>1.00875904258632</v>
       </c>
       <c r="K4">
-        <v>1.04953392684855</v>
+        <v>1.011015981856328</v>
       </c>
       <c r="L4">
-        <v>1.048114715372643</v>
+        <v>1.01194594893173</v>
       </c>
       <c r="M4">
-        <v>1.057535549989291</v>
+        <v>1.011896231665764</v>
       </c>
       <c r="N4">
-        <v>1.017955063093808</v>
+        <v>1.006973647302571</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037854081949189</v>
+        <v>0.9910617426526174</v>
       </c>
       <c r="D5">
-        <v>1.04742390836385</v>
+        <v>1.002909324896763</v>
       </c>
       <c r="E5">
-        <v>1.045983133442264</v>
+        <v>1.003746143052426</v>
       </c>
       <c r="F5">
-        <v>1.055487517790941</v>
+        <v>1.004250784851794</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026584167974395</v>
+        <v>1.041850505048974</v>
       </c>
       <c r="J5">
-        <v>1.042280005883959</v>
+        <v>1.010235215932918</v>
       </c>
       <c r="K5">
-        <v>1.049828168557979</v>
+        <v>1.012749041079767</v>
       </c>
       <c r="L5">
-        <v>1.048390879693913</v>
+        <v>1.0135760937453</v>
       </c>
       <c r="M5">
-        <v>1.05787245617933</v>
+        <v>1.014074856209087</v>
       </c>
       <c r="N5">
-        <v>1.018039306237648</v>
+        <v>1.007460461415282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037913320361235</v>
+        <v>0.9913926987505436</v>
       </c>
       <c r="D6">
-        <v>1.047481940449837</v>
+        <v>1.003238424282591</v>
       </c>
       <c r="E6">
-        <v>1.046038142233479</v>
+        <v>1.004057896354038</v>
       </c>
       <c r="F6">
-        <v>1.055552586772024</v>
+        <v>1.004654137073369</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026591046616384</v>
+        <v>1.041979639213694</v>
       </c>
       <c r="J6">
-        <v>1.042322824510152</v>
+        <v>1.010480362264681</v>
       </c>
       <c r="K6">
-        <v>1.049877460545901</v>
+        <v>1.013036755038638</v>
       </c>
       <c r="L6">
-        <v>1.048437142213823</v>
+        <v>1.013846712761927</v>
       </c>
       <c r="M6">
-        <v>1.057928843014198</v>
+        <v>1.014436042979584</v>
       </c>
       <c r="N6">
-        <v>1.018053421355035</v>
+        <v>1.007541307332999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037505501457944</v>
+        <v>0.9890984050101355</v>
       </c>
       <c r="D7">
-        <v>1.047082291021597</v>
+        <v>1.000955452435752</v>
       </c>
       <c r="E7">
-        <v>1.045659316451188</v>
+        <v>1.001895331454613</v>
       </c>
       <c r="F7">
-        <v>1.055104147881976</v>
+        <v>1.001852532881797</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026542961549701</v>
+        <v>1.041077003888137</v>
       </c>
       <c r="J7">
-        <v>1.042027875461504</v>
+        <v>1.008778951799606</v>
       </c>
       <c r="K7">
-        <v>1.04953786606669</v>
+        <v>1.011039362057164</v>
       </c>
       <c r="L7">
-        <v>1.048118412650367</v>
+        <v>1.011967941399342</v>
       </c>
       <c r="M7">
-        <v>1.057540063899285</v>
+        <v>1.011925656799819</v>
       </c>
       <c r="N7">
-        <v>1.017956190745712</v>
+        <v>1.006980212894285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035788713927501</v>
+        <v>0.9790047833148346</v>
       </c>
       <c r="D8">
-        <v>1.045396517182373</v>
+        <v>0.9908689454707936</v>
       </c>
       <c r="E8">
-        <v>1.044061458427446</v>
+        <v>0.9923428740815062</v>
       </c>
       <c r="F8">
-        <v>1.053204372569413</v>
+        <v>0.98937836921912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026322353747458</v>
+        <v>1.036908450112255</v>
       </c>
       <c r="J8">
-        <v>1.040781992898821</v>
+        <v>1.001240050786997</v>
       </c>
       <c r="K8">
-        <v>1.048102032847066</v>
+        <v>1.002174039975369</v>
       </c>
       <c r="L8">
-        <v>1.046770637548922</v>
+        <v>1.003627574818792</v>
       </c>
       <c r="M8">
-        <v>1.055888664442549</v>
+        <v>1.00070416580354</v>
       </c>
       <c r="N8">
-        <v>1.017545459145822</v>
+        <v>1.004494266959751</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032716567673166</v>
+        <v>0.9587916023132713</v>
       </c>
       <c r="D9">
-        <v>1.042367116990732</v>
+        <v>0.9704583396904445</v>
       </c>
       <c r="E9">
-        <v>1.041190351809656</v>
+        <v>0.973022435752023</v>
       </c>
       <c r="F9">
-        <v>1.04975945398698</v>
+        <v>0.9636784840652793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025859266304263</v>
+        <v>1.027677521095413</v>
       </c>
       <c r="J9">
-        <v>1.038536514901501</v>
+        <v>0.9858884320877419</v>
       </c>
       <c r="K9">
-        <v>1.045509063356386</v>
+        <v>0.9840496117041988</v>
       </c>
       <c r="L9">
-        <v>1.044336090438673</v>
+        <v>0.9865689143953771</v>
       </c>
       <c r="M9">
-        <v>1.052877790425674</v>
+        <v>0.977389687558847</v>
       </c>
       <c r="N9">
-        <v>1.016805101568613</v>
+        <v>0.9994337707133437</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03063581767105</v>
+        <v>0.9428978027178215</v>
       </c>
       <c r="D10">
-        <v>1.040306755104612</v>
+        <v>0.9541954529397741</v>
       </c>
       <c r="E10">
-        <v>1.039237860079458</v>
+        <v>0.9576361822574375</v>
       </c>
       <c r="F10">
-        <v>1.047395759937005</v>
+        <v>0.942770297974698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02550009595894</v>
+        <v>1.019648148950898</v>
       </c>
       <c r="J10">
-        <v>1.037004930215756</v>
+        <v>0.973575630486329</v>
       </c>
       <c r="K10">
-        <v>1.043737036393813</v>
+        <v>0.9694440841114742</v>
       </c>
       <c r="L10">
-        <v>1.042671929910005</v>
+        <v>0.9728149074517933</v>
       </c>
       <c r="M10">
-        <v>1.050801130870269</v>
+        <v>0.9582559005286774</v>
       </c>
       <c r="N10">
-        <v>1.016300064518186</v>
+        <v>0.9953771546307357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029726824456937</v>
+        <v>0.9351314262995721</v>
       </c>
       <c r="D11">
-        <v>1.039404639161595</v>
+        <v>0.9461712828063548</v>
       </c>
       <c r="E11">
-        <v>1.038383025616001</v>
+        <v>0.9500468120659611</v>
       </c>
       <c r="F11">
-        <v>1.046355934814718</v>
+        <v>0.932309034214468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025332484181779</v>
+        <v>1.015478602587057</v>
       </c>
       <c r="J11">
-        <v>1.036333304937137</v>
+        <v>0.9674760365856169</v>
       </c>
       <c r="K11">
-        <v>1.042959166872508</v>
+        <v>0.9621851072870646</v>
       </c>
       <c r="L11">
-        <v>1.041941317322026</v>
+        <v>0.9659765357430641</v>
       </c>
       <c r="M11">
-        <v>1.049885067031217</v>
+        <v>0.9486313153953632</v>
       </c>
       <c r="N11">
-        <v>1.016078584211453</v>
+        <v>0.9933684296752811</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029387956053361</v>
+        <v>0.9320670714119634</v>
       </c>
       <c r="D12">
-        <v>1.039068029524192</v>
+        <v>0.9429897716237963</v>
       </c>
       <c r="E12">
-        <v>1.038064066074196</v>
+        <v>0.9470380659862312</v>
       </c>
       <c r="F12">
-        <v>1.045967206530262</v>
+        <v>0.9281336029525737</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025268397581603</v>
+        <v>1.013787558295898</v>
       </c>
       <c r="J12">
-        <v>1.036082544861732</v>
+        <v>0.9650532387398861</v>
       </c>
       <c r="K12">
-        <v>1.04266861840073</v>
+        <v>0.9592972468230025</v>
       </c>
       <c r="L12">
-        <v>1.041668406238501</v>
+        <v>0.9632554913332353</v>
       </c>
       <c r="M12">
-        <v>1.049542232205205</v>
+        <v>0.9447805507511196</v>
       </c>
       <c r="N12">
-        <v>1.015995889706036</v>
+        <v>0.992570727501451</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029460700432865</v>
+        <v>0.9327335915921064</v>
       </c>
       <c r="D13">
-        <v>1.039140302819453</v>
+        <v>0.9436825499094019</v>
       </c>
       <c r="E13">
-        <v>1.038132549371817</v>
+        <v>0.947693207389278</v>
       </c>
       <c r="F13">
-        <v>1.046050703412368</v>
+        <v>0.9290441718205598</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025282227304522</v>
+        <v>1.014157625532146</v>
       </c>
       <c r="J13">
-        <v>1.036136392402502</v>
+        <v>0.9655810165253024</v>
       </c>
       <c r="K13">
-        <v>1.042731015447395</v>
+        <v>0.9599265583105169</v>
       </c>
       <c r="L13">
-        <v>1.041727016178076</v>
+        <v>0.963848476654518</v>
       </c>
       <c r="M13">
-        <v>1.049615888234321</v>
+        <v>0.9456207667543666</v>
       </c>
       <c r="N13">
-        <v>1.016013647387536</v>
+        <v>0.9927444886089732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029698838678197</v>
+        <v>0.9348821646925025</v>
       </c>
       <c r="D14">
-        <v>1.039376846142725</v>
+        <v>0.9459128288506337</v>
       </c>
       <c r="E14">
-        <v>1.038356689762217</v>
+        <v>0.9498023853384538</v>
       </c>
       <c r="F14">
-        <v>1.046323853452373</v>
+        <v>0.9319704325707712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025327224129427</v>
+        <v>1.015342033598762</v>
       </c>
       <c r="J14">
-        <v>1.036312603440524</v>
+        <v>0.9672793098326926</v>
       </c>
       <c r="K14">
-        <v>1.042935183101673</v>
+        <v>0.9619507164615164</v>
       </c>
       <c r="L14">
-        <v>1.041918789739954</v>
+        <v>0.9657556955947469</v>
       </c>
       <c r="M14">
-        <v>1.049856780794706</v>
+        <v>0.9483192388075559</v>
       </c>
       <c r="N14">
-        <v>1.016071757406246</v>
+        <v>0.9933036538710258</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029845400079313</v>
+        <v>0.9361802924308437</v>
       </c>
       <c r="D15">
-        <v>1.039522385585611</v>
+        <v>0.9472581861401964</v>
       </c>
       <c r="E15">
-        <v>1.038494599011156</v>
+        <v>0.951074740171434</v>
       </c>
       <c r="F15">
-        <v>1.046491818976285</v>
+        <v>0.9337318496341762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02535470553927</v>
+        <v>1.016051376061875</v>
       </c>
       <c r="J15">
-        <v>1.036421001495326</v>
+        <v>0.9683031734623772</v>
       </c>
       <c r="K15">
-        <v>1.043060763008693</v>
+        <v>0.9631704145815642</v>
       </c>
       <c r="L15">
-        <v>1.042036744419912</v>
+        <v>0.9669048587994348</v>
       </c>
       <c r="M15">
-        <v>1.050004861282476</v>
+        <v>0.9499422919829716</v>
       </c>
       <c r="N15">
-        <v>1.016107504134339</v>
+        <v>0.9936407866260171</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030695973696437</v>
+        <v>0.9433911977000763</v>
       </c>
       <c r="D16">
-        <v>1.040366413383013</v>
+        <v>0.9547034142110193</v>
       </c>
       <c r="E16">
-        <v>1.03929439264582</v>
+        <v>0.958116666452278</v>
       </c>
       <c r="F16">
-        <v>1.047464422493807</v>
+        <v>0.9434292445159024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025510964111279</v>
+        <v>1.019907507184212</v>
       </c>
       <c r="J16">
-        <v>1.037049324233116</v>
+        <v>0.9739612247587938</v>
       </c>
       <c r="K16">
-        <v>1.043788436223339</v>
+        <v>0.9699024322068459</v>
       </c>
       <c r="L16">
-        <v>1.042720205161082</v>
+        <v>0.9732466374963993</v>
       </c>
       <c r="M16">
-        <v>1.050861568884182</v>
+        <v>0.9588610250462154</v>
       </c>
       <c r="N16">
-        <v>1.016314703957202</v>
+        <v>0.9955041594357391</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031227353890222</v>
+        <v>0.9476521220041445</v>
       </c>
       <c r="D17">
-        <v>1.040893163436641</v>
+        <v>0.9590815406822348</v>
       </c>
       <c r="E17">
-        <v>1.039793550264466</v>
+        <v>0.9622582140196169</v>
       </c>
       <c r="F17">
-        <v>1.048070113119884</v>
+        <v>0.9490927716877479</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025605736410267</v>
+        <v>1.022120215442449</v>
       </c>
       <c r="J17">
-        <v>1.037441180867676</v>
+        <v>0.9772820044389802</v>
       </c>
       <c r="K17">
-        <v>1.044242039211078</v>
+        <v>0.9738471853454642</v>
       </c>
       <c r="L17">
-        <v>1.043146223077529</v>
+        <v>0.9769620178783072</v>
       </c>
       <c r="M17">
-        <v>1.05139442157327</v>
+        <v>0.9640564197366355</v>
       </c>
       <c r="N17">
-        <v>1.016443921691499</v>
+        <v>0.9965980346684559</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031536527328094</v>
+        <v>0.9500561760946381</v>
       </c>
       <c r="D18">
-        <v>1.041199448148912</v>
+        <v>0.9615450914894826</v>
       </c>
       <c r="E18">
-        <v>1.040083795951815</v>
+        <v>0.9645888424410168</v>
       </c>
       <c r="F18">
-        <v>1.048421829256416</v>
+        <v>0.9522671618302125</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025659849976952</v>
+        <v>1.023347337492648</v>
       </c>
       <c r="J18">
-        <v>1.037668931429029</v>
+        <v>0.9791484749871415</v>
       </c>
       <c r="K18">
-        <v>1.044505600060295</v>
+        <v>0.9760623494239939</v>
       </c>
       <c r="L18">
-        <v>1.043393746993889</v>
+        <v>0.9790481576145198</v>
       </c>
       <c r="M18">
-        <v>1.051703601624537</v>
+        <v>0.9669640398314148</v>
       </c>
       <c r="N18">
-        <v>1.01651902292214</v>
+        <v>0.9972129293929979</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031641817297214</v>
+        <v>0.950863141842782</v>
       </c>
       <c r="D19">
-        <v>1.041303721318654</v>
+        <v>0.9623709824257555</v>
       </c>
       <c r="E19">
-        <v>1.040182609541116</v>
+        <v>0.9653702049357873</v>
       </c>
       <c r="F19">
-        <v>1.048541489672364</v>
+        <v>0.9533293676067701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025678103958108</v>
+        <v>1.023755812397376</v>
       </c>
       <c r="J19">
-        <v>1.037746451231121</v>
+        <v>0.9797738537801424</v>
       </c>
       <c r="K19">
-        <v>1.044595295548349</v>
+        <v>0.9768042401896752</v>
       </c>
       <c r="L19">
-        <v>1.043477983245507</v>
+        <v>0.9797468013093592</v>
       </c>
       <c r="M19">
-        <v>1.051808749629381</v>
+        <v>0.967936268723968</v>
       </c>
       <c r="N19">
-        <v>1.016544585025336</v>
+        <v>0.99741896721856</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031170421806903</v>
+        <v>0.9472036281406749</v>
       </c>
       <c r="D20">
-        <v>1.040836747592241</v>
+        <v>0.9586214247027015</v>
       </c>
       <c r="E20">
-        <v>1.039740089109044</v>
+        <v>0.9618229400156543</v>
       </c>
       <c r="F20">
-        <v>1.04800529121179</v>
+        <v>0.948498903523731</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025595688877107</v>
+        <v>1.021889589723634</v>
       </c>
       <c r="J20">
-        <v>1.037399222575712</v>
+        <v>0.976933235086851</v>
       </c>
       <c r="K20">
-        <v>1.044193477387365</v>
+        <v>0.9734330990265826</v>
       </c>
       <c r="L20">
-        <v>1.043100615381648</v>
+        <v>0.9765720329441862</v>
       </c>
       <c r="M20">
-        <v>1.051337419741181</v>
+        <v>0.9635121076588614</v>
       </c>
       <c r="N20">
-        <v>1.016430085753343</v>
+        <v>0.9964831409947714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029628746991234</v>
+        <v>0.9342549429891168</v>
       </c>
       <c r="D21">
-        <v>1.039307232307357</v>
+        <v>0.945262214422548</v>
       </c>
       <c r="E21">
-        <v>1.038290725848992</v>
+        <v>0.9491870880845631</v>
       </c>
       <c r="F21">
-        <v>1.046243486647163</v>
+        <v>0.9311175963789899</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025314024252197</v>
+        <v>1.014997614748825</v>
       </c>
       <c r="J21">
-        <v>1.036260749423229</v>
+        <v>0.966784011061335</v>
       </c>
       <c r="K21">
-        <v>1.042875105553346</v>
+        <v>0.9613605144521806</v>
       </c>
       <c r="L21">
-        <v>1.041862359610733</v>
+        <v>0.9651996058386938</v>
       </c>
       <c r="M21">
-        <v>1.049785915121437</v>
+        <v>0.9475330574539526</v>
       </c>
       <c r="N21">
-        <v>1.016054657293814</v>
+        <v>0.993140570873607</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028652318305435</v>
+        <v>0.92502375556685</v>
       </c>
       <c r="D22">
-        <v>1.038336736157941</v>
+        <v>0.9356413751404256</v>
       </c>
       <c r="E22">
-        <v>1.037371132395184</v>
+        <v>0.9400894409504105</v>
       </c>
       <c r="F22">
-        <v>1.0451213383452</v>
+        <v>0.9184272695535859</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025126346900654</v>
+        <v>1.009798520869494</v>
       </c>
       <c r="J22">
-        <v>1.035537480034655</v>
+        <v>0.9594478131019089</v>
       </c>
       <c r="K22">
-        <v>1.0420368466036</v>
+        <v>0.9526055043763515</v>
       </c>
       <c r="L22">
-        <v>1.041074959903986</v>
+        <v>0.9569491017927005</v>
       </c>
       <c r="M22">
-        <v>1.048795546362824</v>
+        <v>0.935808555102477</v>
       </c>
       <c r="N22">
-        <v>1.015816137228439</v>
+        <v>0.9907255598465866</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029170624411293</v>
+        <v>0.9300456358577547</v>
       </c>
       <c r="D23">
-        <v>1.038852060597388</v>
+        <v>0.9408860022996424</v>
       </c>
       <c r="E23">
-        <v>1.03785942366503</v>
+        <v>0.945048645691086</v>
       </c>
       <c r="F23">
-        <v>1.045717591427861</v>
+        <v>0.9253637627453408</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025226845679104</v>
+        <v>1.0126574644952</v>
       </c>
       <c r="J23">
-        <v>1.03592161371075</v>
+        <v>0.9634498111707305</v>
       </c>
       <c r="K23">
-        <v>1.04248211816196</v>
+        <v>0.9573845729218671</v>
       </c>
       <c r="L23">
-        <v>1.041493223351978</v>
+        <v>0.9614531343942061</v>
       </c>
       <c r="M23">
-        <v>1.04932198202144</v>
+        <v>0.9422231738160148</v>
       </c>
       <c r="N23">
-        <v>1.015942818030252</v>
+        <v>0.9920428593278501</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03119614934828</v>
+        <v>0.9474065312588429</v>
       </c>
       <c r="D24">
-        <v>1.040862242448368</v>
+        <v>0.9588296063146703</v>
       </c>
       <c r="E24">
-        <v>1.039764248697977</v>
+        <v>0.9620198811371173</v>
       </c>
       <c r="F24">
-        <v>1.048034586300721</v>
+        <v>0.9487676406112411</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025600232525836</v>
+        <v>1.021993993310471</v>
       </c>
       <c r="J24">
-        <v>1.037418184232495</v>
+        <v>0.9770910439936245</v>
       </c>
       <c r="K24">
-        <v>1.044215423530136</v>
+        <v>0.9736204683952447</v>
       </c>
       <c r="L24">
-        <v>1.04312122651758</v>
+        <v>0.9767484973945992</v>
       </c>
       <c r="M24">
-        <v>1.05136318143188</v>
+        <v>0.9637584333077189</v>
       </c>
       <c r="N24">
-        <v>1.016436338450077</v>
+        <v>0.9965351271155084</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033516462787259</v>
+        <v>0.9643693765923536</v>
       </c>
       <c r="D25">
-        <v>1.043157382013318</v>
+        <v>0.9761195791092184</v>
       </c>
       <c r="E25">
-        <v>1.041939287047277</v>
+        <v>0.9783801071283268</v>
       </c>
       <c r="F25">
-        <v>1.050661741442136</v>
+        <v>0.9708669433551713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025987839603171</v>
+        <v>1.030336469275881</v>
       </c>
       <c r="J25">
-        <v>1.03912305114503</v>
+        <v>0.99015837084823</v>
       </c>
       <c r="K25">
-        <v>1.046186967246703</v>
+        <v>0.9891002764999965</v>
       </c>
       <c r="L25">
-        <v>1.044972646474046</v>
+        <v>0.9913235796676613</v>
       </c>
       <c r="M25">
-        <v>1.05366828547454</v>
+        <v>0.9839350003258204</v>
       </c>
       <c r="N25">
-        <v>1.016998498887812</v>
+        <v>1.000841042048371</v>
       </c>
     </row>
   </sheetData>
